--- a/WIP/files/Q12.xlsx
+++ b/WIP/files/Q12.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68B36E1-B3EB-47DA-9A2D-83E5F63734B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BCB152-5CC2-4EB3-A391-9377A52B1FF6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Others</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -77,10 +77,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,13 +364,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P934"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -393,6 +400,69 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="3"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" s="3"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" s="3"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B370" s="3"/>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B473" s="3"/>
+    </row>
+    <row r="513" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B513" s="4"/>
+    </row>
+    <row r="514" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B514" s="5"/>
+    </row>
+    <row r="582" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B582" s="3"/>
+    </row>
+    <row r="585" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B585" s="3"/>
+    </row>
+    <row r="680" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B680" s="3"/>
+    </row>
+    <row r="683" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B683" s="3"/>
+    </row>
+    <row r="892" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B892" s="3"/>
+    </row>
+    <row r="895" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B895" s="3"/>
+    </row>
+    <row r="933" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B933" s="4"/>
+    </row>
+    <row r="934" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B934" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/files/Q12.xlsx
+++ b/WIP/files/Q12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steffin Rayen\Desktop\GIT_WORKSPACE\fluffy-chainsaw\WIP\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BEF537-7574-4C43-9007-6A327DD8013D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A1BBDE4-1B8A-4F5C-9502-A9A118E3121B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="5652" xr2:uid="{AE0A5937-2D9D-478E-8BCE-7C2CCA079A9B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="5652" xr2:uid="{B467DD8F-A4AE-421E-8F5C-BCC4102DB5B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="1" r:id="rId1"/>
@@ -2421,7 +2421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CBCD40-8FA0-4B55-8C17-956DCBE00C1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A330D22-666F-40E7-A4BF-7D84F92AC267}">
   <dimension ref="A1:F871"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
